--- a/data/income_statement/3digits/total/691_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/691_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>691-Legal activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>691-Legal activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>248518.70042</v>
@@ -959,34 +865,39 @@
         <v>399637.40173</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>377406.00123</v>
+        <v>377476.02423</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>421441.03521</v>
+        <v>421927.98549</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>489216.22457</v>
+        <v>492553.6882799999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>594386.6248199999</v>
+        <v>596644.59497</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>786694.50445</v>
+        <v>787445.68499</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>893233.9298399999</v>
+        <v>893233.92984</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>857858.6076900001</v>
+        <v>859026.9297500001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>997232.0462999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1017284.01971</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1234337.646</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>190884.21205</v>
@@ -998,34 +909,39 @@
         <v>318510.5689</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>297341.3223300001</v>
+        <v>297411.34533</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>333421.55774</v>
+        <v>333908.50802</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>398282.6678</v>
+        <v>399030.0754</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>483154.86834</v>
+        <v>485377.35447</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>652342.07219</v>
+        <v>653062.66145</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>716675.5731500001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>675515.39648</v>
+        <v>676683.16234</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>795415.4356800001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>814943.46219</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1018091.57</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>53131.83883</v>
@@ -1040,16 +956,16 @@
         <v>70148.80568999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>74618.36224000002</v>
+        <v>74618.36223999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>72527.90642</v>
+        <v>75110.66253</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>90923.23268</v>
+        <v>90947.60763</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>104784.20907</v>
+        <v>104806.21129</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>134744.98355</v>
@@ -1058,13 +974,18 @@
         <v>147255.83699</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>158399.40522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>158660.28137</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>163499.826</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>4502.64954</v>
@@ -1082,28 +1003,33 @@
         <v>13401.11523</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>18405.65035</v>
+        <v>18412.95035</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>20308.5238</v>
+        <v>20319.63287</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>29568.22319</v>
+        <v>29576.81225</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>41813.37314</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>35087.37422</v>
+        <v>35087.93042</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>43417.2054</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>43680.27615</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>52746.25</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>2252.04693</v>
@@ -1118,31 +1044,36 @@
         <v>1337.19413</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1429.72468</v>
+        <v>1431.84333</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2200.69124</v>
+        <v>2291.14699</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>8716.6649</v>
+        <v>8716.664899999998</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>3969.24263</v>
+        <v>3979.577629999999</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>5013.78716</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>8049.09165</v>
+        <v>8055.227239999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>11160.27271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>11175.97371</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>20057.657</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>892.5319599999999</v>
@@ -1157,31 +1088,36 @@
         <v>1189.20229</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1353.3287</v>
+        <v>1355.44735</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2087.71531</v>
+        <v>2178.17106</v>
       </c>
       <c r="I10" s="48" t="n">
         <v>8538.032219999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>3899.812300000001</v>
+        <v>3910.147299999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>4595.46323</v>
+        <v>4595.463229999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>7895.16869</v>
+        <v>7901.304279999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>10966.09324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>10981.79424</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>19657.058</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1236.05844</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>161.3916</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>188.441</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>123.45653</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>32.78787000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>212.158</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>246266.65349</v>
@@ -1271,34 +1217,39 @@
         <v>394494.09915</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>376068.8071</v>
+        <v>376138.8301</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>420011.31053</v>
+        <v>420496.14216</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>487015.53333</v>
+        <v>490262.54129</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>585669.9599200001</v>
+        <v>587927.9300699999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>782725.26182</v>
+        <v>783466.10736</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>888220.14268</v>
+        <v>888220.1426799999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>849809.5160400001</v>
+        <v>850971.70251</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>986071.77359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1006108.046</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1214279.989</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>144681.30971</v>
@@ -1310,34 +1261,39 @@
         <v>235029.38186</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>198206.00709</v>
+        <v>198250.35712</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>226871.33908</v>
+        <v>227330.29272</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>274537.86031</v>
+        <v>277377.63607</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>352443.73159</v>
+        <v>354051.16056</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>526818.58582</v>
+        <v>527235.48234</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>565230.21775</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>540050.90788</v>
+        <v>540631.65553</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>636934.93004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>654278.8384100001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>820280.819</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2630.68559</v>
@@ -1370,19 +1326,24 @@
         <v>3784.36107</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>13756.37225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14082.89177</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>14014.705</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>22136.61649</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>52988.16901999999</v>
+        <v>52988.16902</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>56308.819</v>
@@ -1400,22 +1361,27 @@
         <v>47683.85748000001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>143593.15986</v>
+        <v>143594.53274</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>29323.52091</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>40983.80779</v>
+        <v>41015.33369</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>23180.88409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>38904.56286</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>49233.516</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>119657.6798</v>
@@ -1427,34 +1393,39 @@
         <v>170465.31973</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>160695.28076</v>
+        <v>160739.63079</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>207324.24897</v>
+        <v>207783.20261</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>255541.24451</v>
+        <v>258381.02027</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>302586.45163</v>
+        <v>304193.8806</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>377557.41094</v>
+        <v>377972.9345800001</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>478124.80332</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>494434.4371699999</v>
+        <v>494983.6589200001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>599294.3526799999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>600588.06276</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>755136.358</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>256.32783</v>
@@ -1466,7 +1437,7 @@
         <v>34.95141</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>680.82413</v>
+        <v>680.8241299999999</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>340.59419</v>
@@ -1475,25 +1446,30 @@
         <v>1342.06853</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>931.2511500000002</v>
+        <v>931.2511500000001</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>1484.51474</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>45578.77576999999</v>
+        <v>45578.77577</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>848.3018499999999</v>
+        <v>848.3018500000001</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>703.32102</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>1896.24</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>101585.34378</v>
@@ -1505,34 +1481,39 @@
         <v>159464.71729</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>177862.80001</v>
+        <v>177888.47298</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>193139.97145</v>
+        <v>193165.84944</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>212477.67302</v>
+        <v>212884.90522</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>233226.22833</v>
+        <v>233876.76951</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>255906.676</v>
+        <v>256230.62502</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>322989.9249299999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>309758.6081599999</v>
+        <v>310340.04698</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>349136.84355</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>351829.2075899999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>393999.17</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>74020.11314</v>
@@ -1544,34 +1525,39 @@
         <v>108126.77958</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>118525.50931</v>
+        <v>118553.97711</v>
       </c>
       <c r="G20" s="47" t="n">
         <v>136307.01419</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>148223.50602</v>
+        <v>148483.04304</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>169387.09683</v>
+        <v>170025.1331</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>193339.48227</v>
+        <v>193448.54481</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>212309.84288</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>209665.92726</v>
+        <v>210289.69427</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>241109.48138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>243922.18974</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>285162.741</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>244.62663</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>350.85946</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>181.242</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>12575.03278</v>
@@ -1628,28 +1619,33 @@
         <v>23619.21916</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>23617.60549</v>
+        <v>23619.09859</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>27682.17917</v>
+        <v>27682.56901</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>37342.76905</v>
+        <v>37348.50529</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>40980.70501</v>
+        <v>40980.70501000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>44977.63689</v>
+        <v>45110.9556</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>44789.88241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>45349.50046</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>55154.579</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>61200.45373</v>
@@ -1661,34 +1657,39 @@
         <v>88663.46897999999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>95013.99940999999</v>
+        <v>95042.46721</v>
       </c>
       <c r="G23" s="48" t="n">
         <v>112499.67746</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>124136.63388</v>
+        <v>124394.6778</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>141264.11487</v>
+        <v>141901.7613</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>155219.09433</v>
+        <v>155322.42063</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>170868.27155</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>164404.53163</v>
+        <v>164894.97993</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>195968.73951</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>198221.82982</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>229826.92</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>27565.23064</v>
@@ -1700,34 +1701,39 @@
         <v>51337.93771</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>59337.29070000001</v>
+        <v>59334.49587000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>56832.95726</v>
+        <v>56858.83525</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>64254.167</v>
+        <v>64401.86218</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>63839.1315</v>
+        <v>63851.63641</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>62567.19373000001</v>
+        <v>62782.08020999999</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>110680.08205</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>100092.6809</v>
+        <v>100050.35271</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>108027.36217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>107907.01785</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>108836.429</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>39560.22793</v>
@@ -1739,34 +1745,39 @@
         <v>32754.03265</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>15918.70014</v>
+        <v>15921.94887</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>57604.34296</v>
+        <v>57604.34295999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>89814.74437</v>
+        <v>89936.0089</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>64732.28520999999</v>
+        <v>64740.51572</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>51636.77006</v>
+        <v>51637.23617999999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>59615.80618000001</v>
+        <v>59615.80618</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>128374.68346</v>
+        <v>128400.91942</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>91466.58072</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>91774.30286</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>133795.357</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>5271.14536</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>7743.1229</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>11486.04011</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>3583.35342</v>
@@ -1865,7 +1886,7 @@
         <v>1834.78307</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2752.39121</v>
+        <v>2752.39353</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>4136.8623</v>
@@ -1877,13 +1898,18 @@
         <v>13786.87093</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>28396.15199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>28412.53976</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>26252.327</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>8.000000000000001e-05</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>78.01089</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>93.83199999999999</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>177.2962</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>341.51678</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>631.551</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>3658.12137</v>
@@ -1976,7 +2012,7 @@
         <v>2471.70102</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>58.31789</v>
+        <v>58.31788999999999</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>182.079</v>
@@ -1994,19 +2030,24 @@
         <v>140.43668</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>154.26812</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>163.26903</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>689.77</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>9906.866179999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>9410.546960000001</v>
+        <v>9410.54696</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>22849.3955</v>
@@ -2018,28 +2059,33 @@
         <v>50865.97254</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>83253.21851999999</v>
+        <v>83374.48305000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>45344.02195</v>
+        <v>45344.90579</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>41001.38293</v>
+        <v>41001.45363</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>48314.64994</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>104983.13652</v>
+        <v>104992.86448</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>39269.48336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>39276.82188</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>88981.251</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>20.10891</v>
@@ -2111,16 +2162,21 @@
         <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>306.18596</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>5457.2963</v>
+        <v>5457.296300000001</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>2634.8001</v>
@@ -2129,7 +2185,7 @@
         <v>2262.28628</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2821.16936</v>
+        <v>2824.41809</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>3212.73787</v>
@@ -2138,25 +2194,30 @@
         <v>4341.04162</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>6252.38015</v>
+        <v>6259.7245</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>5774.98113</v>
+        <v>5775.37655</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>6580.885</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>8927.538879999998</v>
+        <v>8944.046879999998</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>15484.02668</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>15452.83566</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>16646.626</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>11251.59637</v>
@@ -2171,37 +2232,42 @@
         <v>9338.691080000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>51143.60144000001</v>
+        <v>51143.60144</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>223408.05814</v>
+        <v>223505.85162</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>48171.44646</v>
+        <v>48171.89966</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>41184.29605999999</v>
+        <v>41241.53377</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>55968.90661000001</v>
+        <v>55968.90661</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>102435.45531</v>
+        <v>102445.06565</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>32969.83102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>32992.4506</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>71379.595</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>308.9271</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>41.15759</v>
+        <v>41.15759000000001</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>25.82896</v>
@@ -2216,7 +2282,7 @@
         <v>213.80545</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>334.8973100000001</v>
+        <v>334.89731</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>306.54842</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>335.37747</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>167.212</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>115.58519</v>
@@ -2249,13 +2320,13 @@
         <v>518.73362</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>572.43566</v>
+        <v>572.4356599999999</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>757.96365</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>893.4061100000001</v>
+        <v>893.40611</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>298.9722</v>
@@ -2264,16 +2335,21 @@
         <v>3665.91849</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>830.70537</v>
+        <v>830.7053700000001</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>909.1738</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>6169.45</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>4.17842</v>
@@ -2288,7 +2364,7 @@
         <v>28.04637</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>64.59887000000001</v>
+        <v>64.59886999999999</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>132782.30325</v>
@@ -2297,7 +2373,7 @@
         <v>6.9252</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>3.70992</v>
+        <v>57.65869</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>8.12682</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>27.66018</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>306.432</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>10261.09382</v>
@@ -2330,28 +2411,33 @@
         <v>49771.87763</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>89218.08368</v>
+        <v>89315.87716000002</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>46506.38927</v>
+        <v>46506.84247</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>39735.29647</v>
+        <v>39738.58541</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>50387.9894</v>
+        <v>50387.98939999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>100159.79918</v>
+        <v>100167.83565</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>25710.69943</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>25711.73732</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>58160.844</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>387.78375</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>174.02809</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>553.26677</v>
+        <v>553.2667700000001</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>477.10972</v>
@@ -2459,16 +2555,21 @@
         <v>1480.11732</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1072.208</v>
+        <v>1073.78187</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>5986.92014</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>6008.501829999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>6575.657</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>12469.0664</v>
@@ -2483,31 +2584,36 @@
         <v>3790.54288</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>9909.21825</v>
+        <v>9909.946840000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>9376.987559999998</v>
+        <v>9376.987560000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3791.74342</v>
+        <v>3803.84386</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>4765.19885</v>
+        <v>4772.032359999999</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>7557.257459999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>12366.71932</v>
+        <v>12370.30131</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>26216.79657</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>26217.04069</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>35755.52</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>10511.65306</v>
@@ -2522,31 +2628,36 @@
         <v>3558.78811</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>9726.21161</v>
+        <v>9726.940199999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>9222.465709999999</v>
+        <v>9222.46571</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>3693.95628</v>
+        <v>3696.71532</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4662.65379</v>
+        <v>4669.4873</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>7404.96053</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>12155.71265</v>
+        <v>12159.29464</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>26005.95052</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>26006.19464</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>9752.948</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1957.41334</v>
@@ -2567,7 +2678,7 @@
         <v>154.52185</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>97.78713999999999</v>
+        <v>107.12854</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>102.54506</v>
@@ -2581,53 +2692,63 @@
       <c r="M46" s="48" t="n">
         <v>210.84605</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>26002.572</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>43404.7958</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>46264.50165000001</v>
+        <v>46264.50165</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>63608.77404</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>62126.75687999999</v>
+        <v>62127.21078</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>53384.48053</v>
+        <v>53409.62993</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-78716.13433000002</v>
+        <v>-78544.9681</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>76608.22683</v>
+        <v>76616.40861000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>68254.46888</v>
+        <v>68405.75026</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>106769.72416</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>113665.18973</v>
+        <v>113635.90517</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>140307.3153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>140471.82942</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>135496.671</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>4108.09365</v>
+        <v>4108.093650000001</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>2189.58003</v>
@@ -2642,28 +2763,33 @@
         <v>6062.2633</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>6886.019220000001</v>
+        <v>6928.108630000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>13902.8275</v>
+        <v>13907.8006</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>7224.20305</v>
+        <v>7225.36448</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>7477.064770000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>9666.539719999999</v>
+        <v>9722.098179999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>10021.53329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>10030.4841</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>14013.085</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>55.74579</v>
@@ -2698,14 +2824,19 @@
       <c r="M49" s="48" t="n">
         <v>1.53472</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>122.002</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>4052.347859999999</v>
+        <v>4052.34786</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>2173.35789</v>
@@ -2720,28 +2851,33 @@
         <v>5811.27042</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>6865.863089999999</v>
+        <v>6907.9525</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>13896.2618</v>
+        <v>13901.2349</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>7217.98248</v>
+        <v>7219.14391</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>7457.472459999999</v>
+        <v>7457.47246</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>9650.764039999998</v>
+        <v>9706.3225</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>10019.99857</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>10028.94938</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>13891.083</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>3527.70717</v>
@@ -2756,31 +2892,36 @@
         <v>2249.52792</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>5384.123999999999</v>
+        <v>5392.293769999999</v>
       </c>
       <c r="H51" s="47" t="n">
         <v>19615.89102</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>6359.50468</v>
+        <v>6359.929929999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>24205.28626</v>
+        <v>24289.24106</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>5228.0963</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>22246.39419</v>
+        <v>22277.91134</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>9413.758519999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>9459.23077</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>13117.522</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0.00976</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>97.45607000000001</v>
@@ -2837,7 +2983,7 @@
         <v>270.60264</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>345.95065</v>
+        <v>345.9506499999999</v>
       </c>
       <c r="I53" s="48" t="n">
         <v>302.85067</v>
@@ -2849,16 +2995,21 @@
         <v>427.70047</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>789.44021</v>
+        <v>789.45428</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>310.30941</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>453.828</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>3430.24134</v>
@@ -2873,31 +3024,36 @@
         <v>1812.51645</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>2844.24258</v>
+        <v>2852.41235</v>
       </c>
       <c r="H54" s="48" t="n">
         <v>19269.94037</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>6056.65401</v>
+        <v>6057.07926</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>24025.9922</v>
+        <v>24109.947</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>4800.39583</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>21436.97398</v>
+        <v>21468.47706</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>9103.44911</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>9148.92136</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>12663.694</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>43985.18228</v>
@@ -2909,34 +3065,39 @@
         <v>43697.84273</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>63044.80022999999</v>
+        <v>63045.25413</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>54062.61983</v>
+        <v>54079.59946</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-91446.00612999999</v>
+        <v>-91232.75049000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>84151.54965</v>
+        <v>84164.27928</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>51273.38567</v>
+        <v>51341.87368</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>109018.69263</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>101085.33526</v>
+        <v>101080.09201</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>140915.09007</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>141043.08275</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>136392.234</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>7845.209110000001</v>
@@ -2951,31 +3112,36 @@
         <v>14028.63421</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>14797.87429</v>
+        <v>14803.28279</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>14567.7723</v>
+        <v>14611.30237</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>18286.54688</v>
+        <v>18295.40228</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>19024.19852</v>
+        <v>19055.46779</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>22946.59982</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>32397.18688</v>
+        <v>32454.18362</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>35624.67782</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>35794.06277</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>39482.962</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>36139.97317</v>
@@ -2987,31 +3153,34 @@
         <v>31679.52522</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>49016.16602</v>
+        <v>49016.61992</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>39264.74554</v>
+        <v>39276.31667</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-106013.77843</v>
+        <v>-105844.05286</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>65865.00276999999</v>
+        <v>65868.87699999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>32249.18715</v>
+        <v>32286.40589</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>86072.09281</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>68688.14838</v>
+        <v>68625.90839</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>105290.41225</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>105249.01998</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>96909.272</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>893</v>
@@ -3041,31 +3213,34 @@
         <v>860</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>684</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>713</v>
+        <v>741</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>838</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>